--- a/3lab_operaciju.xlsx
+++ b/3lab_operaciju.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dlyzius\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1105BC7-E46D-43F4-9D3E-623BDAB7ACAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C00F329-DC27-4777-8ABC-0B0973957777}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{CA870EE4-30C6-4789-A5C2-F82CC524CCA3}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
